--- a/Seguimiento.xlsx
+++ b/Seguimiento.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro174/www/proalum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\ProAlumno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBB26E5-DBBD-BA4F-B1AF-E5CB518CE457}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{50BFA778-8F15-5B43-BCAA-A49B1F78A740}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Actividad</t>
   </si>
@@ -38,11 +37,17 @@
   <si>
     <t>Fecha de deteccion</t>
   </si>
+  <si>
+    <t>Registrar equipo, no poder agregarse a uno mismo alos miembros del equipo</t>
+  </si>
+  <si>
+    <t>Agregar notificacion de que añadio el equipo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -432,22 +437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661FA027-220E-5547-A796-273B02CED70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -461,598 +466,610 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43278</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43278</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="17" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="18" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="19" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="20" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="21" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="22" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="23" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="24" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="25" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="26" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="27" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="28" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="29" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="30" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="31" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="32" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="33" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="34" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="35" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="36" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="37" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="38" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="39" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="40" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="41" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="42" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="43" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="44" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="45" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="46" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="47" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="48" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="49" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="50" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="51" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="52" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="53" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="54" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="55" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="56" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="57" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="58" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="59" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="60" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="61" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="62" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="63" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="64" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="65" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="66" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="67" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="68" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="69" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="70" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="71" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="72" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="73" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="74" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="75" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="76" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="77" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="78" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="79" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="80" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="81" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="82" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="83" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="84" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="85" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="86" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="87" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="88" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="89" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="90" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="91" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="92" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="93" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="94" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="95" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="96" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="97" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="98" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="99" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="100" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="101" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="102" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="103" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="104" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="105" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="106" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="107" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="108" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+    <row r="109" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="110" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="111" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="112" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="113" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="114" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="115" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="116" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="117" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="118" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="119" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="120" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="121" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="122" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="123" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="124" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="125" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="126" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="127" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="128" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="129" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="130" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="131" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="132" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="133" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="134" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="135" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="136" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="137" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="138" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="139" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="140" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="141" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="142" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="143" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="144" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="145" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="146" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="147" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="148" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="149" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="150" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="151" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="152" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="153" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="154" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="155" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="156" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="157" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="158" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="159" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="160" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="161" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="162" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="163" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="164" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="165" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="166" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="167" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="168" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="169" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="170" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="171" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="172" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="173" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="174" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="175" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="176" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="177" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="178" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="179" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="180" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="181" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="182" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="183" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="184" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="185" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="186" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="187" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="188" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="189" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="190" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="191" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="192" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="193" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="194" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="195" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="196" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="197" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="198" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" ht="92" x14ac:dyDescent="1">
+    <row r="199" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
       <c r="D199" s="6"/>
     </row>
   </sheetData>

--- a/Seguimiento.xlsx
+++ b/Seguimiento.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -476,6 +476,9 @@
       <c r="B3" s="2">
         <v>43278</v>
       </c>
+      <c r="C3" s="2">
+        <v>43279</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
@@ -484,6 +487,9 @@
       </c>
       <c r="B4" s="2">
         <v>43278</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43279</v>
       </c>
       <c r="D4" s="6"/>
     </row>

--- a/Seguimiento.xlsx
+++ b/Seguimiento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\ProAlumno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro174/www/proalum/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65022E38-2177-2247-993D-4BB4B7EDEE27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16635"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Actividad</t>
   </si>
@@ -43,11 +44,26 @@
   <si>
     <t>Agregar notificacion de que añadio el equipo</t>
   </si>
+  <si>
+    <t>cambiar textos pagina principal</t>
+  </si>
+  <si>
+    <t>textos en español de validacion</t>
+  </si>
+  <si>
+    <t>estilizar opciones de descarga de curriculum</t>
+  </si>
+  <si>
+    <t>cambiar de orden botnes equipo y proyecto</t>
+  </si>
+  <si>
+    <t>mis proyecto  acomodar btones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -437,22 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -466,10 +482,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,7 +497,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -493,589 +509,604 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="17" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="18" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="19" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="20" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="21" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="22" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="23" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="24" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="25" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="26" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="27" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="28" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="29" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="30" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="31" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="32" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="33" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="34" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="35" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="36" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="37" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="38" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="39" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="40" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="41" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="42" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="43" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="44" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="45" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="46" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="47" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="48" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="49" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="50" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="51" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="52" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="53" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="54" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="55" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="56" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="57" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="58" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="59" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="60" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="61" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="62" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="63" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="64" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="66" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="67" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="68" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="69" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="70" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="71" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="72" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="73" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="74" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="75" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="76" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="77" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="78" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="79" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="80" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="81" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="82" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="83" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="84" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="85" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="86" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="87" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="88" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="89" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="90" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="91" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="92" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="93" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="94" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="95" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="96" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="97" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="98" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="99" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="100" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="101" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="102" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="103" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="104" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="105" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="106" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="107" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="108" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="109" spans="4:4" ht="40" customHeight="1" x14ac:dyDescent="1">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="110" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="111" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="112" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="113" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="114" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="115" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="116" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="117" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="118" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="119" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="120" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="121" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="122" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="123" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="124" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="125" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="126" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="127" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="128" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="129" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="130" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="131" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="132" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="133" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="134" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="135" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="136" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="137" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="138" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="139" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="140" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="141" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="142" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="143" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="144" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="145" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="146" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="147" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="148" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="149" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="150" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="151" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="152" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="153" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="154" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="155" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="156" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="157" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="158" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="159" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="160" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="161" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="162" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="163" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="164" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="165" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="166" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="167" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="168" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="169" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="170" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="171" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="172" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="173" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="174" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="175" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="176" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="177" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="178" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="179" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="180" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="181" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="182" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="183" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="184" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="185" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="186" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="187" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="188" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="189" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="190" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="191" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="192" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="193" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="194" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="195" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="196" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="197" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="198" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="199" spans="4:4" ht="92" x14ac:dyDescent="1">
       <c r="D199" s="6"/>
     </row>
   </sheetData>
